--- a/procv1.xlsx
+++ b/procv1.xlsx
@@ -14486,10 +14486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T460"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I292" sqref="I292:I453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14498,7 +14499,8 @@
     <col min="2" max="2" width="13.140625" style="115" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="116" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12.28515625" style="116" customWidth="1"/>
-    <col min="7" max="9" width="13.42578125" style="116" customWidth="1"/>
+    <col min="7" max="8" width="13.42578125" style="116" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="116" customWidth="1"/>
     <col min="10" max="11" width="13.28515625" style="116" customWidth="1"/>
     <col min="12" max="12" width="17" style="116" customWidth="1"/>
     <col min="13" max="13" width="46.28515625" style="116" customWidth="1"/>
@@ -14574,7 +14576,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="125">
         <v>17102</v>
       </c>
@@ -14614,7 +14616,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="127">
         <v>5482</v>
       </c>
@@ -14662,7 +14664,7 @@
       </c>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="127" t="s">
         <v>558</v>
       </c>
@@ -14722,7 +14724,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="128" t="s">
         <v>569</v>
       </c>
@@ -14782,7 +14784,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="125" t="s">
         <v>581</v>
       </c>
@@ -14826,7 +14828,7 @@
       </c>
       <c r="T6" s="7"/>
     </row>
-    <row r="7" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="125" t="s">
         <v>584</v>
       </c>
@@ -14886,7 +14888,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="128" t="s">
         <v>592</v>
       </c>
@@ -14926,7 +14928,7 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="226.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="226.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="129" t="s">
         <v>594</v>
       </c>
@@ -14978,7 +14980,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="129" t="s">
         <v>599</v>
       </c>
@@ -15022,7 +15024,7 @@
       </c>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" s="171" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="171" customFormat="1" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="125" t="s">
         <v>604</v>
       </c>
@@ -15064,7 +15066,7 @@
       </c>
       <c r="T11" s="7"/>
     </row>
-    <row r="12" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="127">
         <v>5545</v>
       </c>
@@ -15108,7 +15110,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="127">
         <v>5550</v>
       </c>
@@ -15166,7 +15168,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="127" t="s">
         <v>663</v>
       </c>
@@ -15224,7 +15226,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="127" t="s">
         <v>667</v>
       </c>
@@ -15284,7 +15286,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="127">
         <v>5692</v>
       </c>
@@ -15340,7 +15342,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="127" t="s">
         <v>675</v>
       </c>
@@ -15400,7 +15402,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="127" t="s">
         <v>679</v>
       </c>
@@ -15442,7 +15444,7 @@
       </c>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="127">
         <v>636886</v>
       </c>
@@ -15490,7 +15492,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="127" t="s">
         <v>687</v>
       </c>
@@ -15540,7 +15542,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="127" t="s">
         <v>692</v>
       </c>
@@ -15592,7 +15594,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="127" t="s">
         <v>698</v>
       </c>
@@ -15638,7 +15640,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="127">
         <v>5562</v>
       </c>
@@ -15688,7 +15690,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="159" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="127">
         <v>5565</v>
       </c>
@@ -15734,7 +15736,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="127" t="s">
         <v>713</v>
       </c>
@@ -15784,7 +15786,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="127">
         <v>5577</v>
       </c>
@@ -15832,7 +15834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="127">
         <v>5525</v>
       </c>
@@ -15878,7 +15880,7 @@
       </c>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="127">
         <v>5509</v>
       </c>
@@ -15922,7 +15924,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="130" t="s">
         <v>9</v>
       </c>
@@ -15966,7 +15968,7 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="127">
         <v>5617</v>
       </c>
@@ -16014,7 +16016,7 @@
       </c>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="127">
         <v>5612</v>
       </c>
@@ -16062,7 +16064,7 @@
       </c>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="130" t="s">
         <v>23</v>
       </c>
@@ -16112,7 +16114,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="130" t="s">
         <v>28</v>
       </c>
@@ -16158,7 +16160,7 @@
       </c>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="127" t="s">
         <v>34</v>
       </c>
@@ -16198,7 +16200,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="127" t="s">
         <v>35</v>
       </c>
@@ -16242,7 +16244,7 @@
       </c>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="127" t="s">
         <v>39</v>
       </c>
@@ -16286,7 +16288,7 @@
       </c>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="130" t="s">
         <v>43</v>
       </c>
@@ -16336,7 +16338,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="127">
         <v>5600</v>
       </c>
@@ -16382,7 +16384,7 @@
       </c>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="127" t="s">
         <v>53</v>
       </c>
@@ -16426,7 +16428,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="130" t="s">
         <v>57</v>
       </c>
@@ -16472,7 +16474,7 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="127" t="s">
         <v>539</v>
       </c>
@@ -16524,7 +16526,7 @@
       </c>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="130" t="s">
         <v>67</v>
       </c>
@@ -16576,7 +16578,7 @@
       </c>
       <c r="T42" s="16"/>
     </row>
-    <row r="43" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="127">
         <v>5630</v>
       </c>
@@ -16622,7 +16624,7 @@
       </c>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="131">
         <v>5635</v>
       </c>
@@ -16668,7 +16670,7 @@
       </c>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="132">
         <v>9904920138190060</v>
       </c>
@@ -16720,7 +16722,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="147.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="147.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="132" t="s">
         <v>90</v>
       </c>
@@ -16770,7 +16772,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="131">
         <v>1862</v>
       </c>
@@ -16824,7 +16826,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="136.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="136.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="133" t="s">
         <v>105</v>
       </c>
@@ -16872,7 +16874,7 @@
       </c>
       <c r="T48" s="7"/>
     </row>
-    <row r="49" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="133">
         <v>5526</v>
       </c>
@@ -16918,7 +16920,7 @@
       </c>
       <c r="T49" s="7"/>
     </row>
-    <row r="50" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="128">
         <v>2163</v>
       </c>
@@ -16966,7 +16968,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="125.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="125.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="128">
         <v>558</v>
       </c>
@@ -17020,7 +17022,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="128" t="s">
         <v>126</v>
       </c>
@@ -17074,7 +17076,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="134" t="s">
         <v>131</v>
       </c>
@@ -17130,7 +17132,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="128">
         <v>4157</v>
       </c>
@@ -17184,7 +17186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="132" t="s">
         <v>143</v>
       </c>
@@ -17240,7 +17242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="132" t="s">
         <v>149</v>
       </c>
@@ -17296,7 +17298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="132" t="s">
         <v>157</v>
       </c>
@@ -17354,7 +17356,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="128" t="s">
         <v>166</v>
       </c>
@@ -17402,7 +17404,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="132" t="s">
         <v>171</v>
       </c>
@@ -17454,7 +17456,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="147.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="147.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="132" t="s">
         <v>178</v>
       </c>
@@ -17502,7 +17504,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="128">
         <v>4908</v>
       </c>
@@ -17550,7 +17552,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="135">
         <v>4998</v>
       </c>
@@ -17598,7 +17600,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="159" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="128">
         <v>4994</v>
       </c>
@@ -17646,7 +17648,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="132" t="s">
         <v>199</v>
       </c>
@@ -17704,7 +17706,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="132.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="132.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="132" t="s">
         <v>208</v>
       </c>
@@ -17752,7 +17754,7 @@
       </c>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="132" t="s">
         <v>214</v>
       </c>
@@ -17800,7 +17802,7 @@
       </c>
       <c r="T66" s="4"/>
     </row>
-    <row r="67" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="128">
         <v>1843</v>
       </c>
@@ -17848,7 +17850,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="147.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="147.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="132" t="s">
         <v>242</v>
       </c>
@@ -17898,7 +17900,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="128">
         <v>1842</v>
       </c>
@@ -17946,7 +17948,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="128" t="s">
         <v>918</v>
       </c>
@@ -17994,7 +17996,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="131">
         <v>5480</v>
       </c>
@@ -18042,7 +18044,7 @@
       </c>
       <c r="T71" s="4"/>
     </row>
-    <row r="72" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="130">
         <v>5481</v>
       </c>
@@ -18088,7 +18090,7 @@
       </c>
       <c r="T72" s="4"/>
     </row>
-    <row r="73" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="130" t="s">
         <v>933</v>
       </c>
@@ -18138,7 +18140,7 @@
       </c>
       <c r="T73" s="4"/>
     </row>
-    <row r="74" spans="1:20" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="134">
         <v>622</v>
       </c>
@@ -18186,7 +18188,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="128" t="s">
         <v>944</v>
       </c>
@@ -18234,7 +18236,7 @@
       </c>
       <c r="T75" s="4"/>
     </row>
-    <row r="76" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="132" t="s">
         <v>950</v>
       </c>
@@ -18284,7 +18286,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="132" t="s">
         <v>290</v>
       </c>
@@ -18334,7 +18336,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="128" t="s">
         <v>294</v>
       </c>
@@ -18382,7 +18384,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="132" t="s">
         <v>299</v>
       </c>
@@ -18432,7 +18434,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="132" t="s">
         <v>305</v>
       </c>
@@ -18484,7 +18486,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="136" t="s">
         <v>312</v>
       </c>
@@ -18534,7 +18536,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="192.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="192.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="132" t="s">
         <v>317</v>
       </c>
@@ -18584,7 +18586,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="215.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="215.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="137" t="s">
         <v>321</v>
       </c>
@@ -18644,7 +18646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="128" t="s">
         <v>330</v>
       </c>
@@ -18692,7 +18694,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="260.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="260.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="128" t="s">
         <v>996</v>
       </c>
@@ -18740,7 +18742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="282.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="282.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="128" t="s">
         <v>1001</v>
       </c>
@@ -18788,7 +18790,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="132" t="s">
         <v>1006</v>
       </c>
@@ -18838,7 +18840,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="128" t="s">
         <v>1011</v>
       </c>
@@ -18886,7 +18888,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="128">
         <v>2435</v>
       </c>
@@ -18934,7 +18936,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="128" t="s">
         <v>1019</v>
       </c>
@@ -18982,7 +18984,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="128">
         <v>2952</v>
       </c>
@@ -19030,7 +19032,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="128">
         <v>3268</v>
       </c>
@@ -19078,7 +19080,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="132" t="s">
         <v>1032</v>
       </c>
@@ -19130,7 +19132,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="128">
         <v>3336</v>
       </c>
@@ -19178,7 +19180,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="132" t="s">
         <v>1042</v>
       </c>
@@ -19230,7 +19232,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="132" t="s">
         <v>336</v>
       </c>
@@ -19280,7 +19282,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="147.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="147.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="128" t="s">
         <v>341</v>
       </c>
@@ -19326,7 +19328,7 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
     </row>
-    <row r="98" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="128">
         <v>3811</v>
       </c>
@@ -19374,7 +19376,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="128" t="s">
         <v>349</v>
       </c>
@@ -19430,7 +19432,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="128">
         <v>5512</v>
       </c>
@@ -19478,7 +19480,7 @@
       </c>
       <c r="T100" s="16"/>
     </row>
-    <row r="101" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="132">
         <v>4.7055082001819002E+17</v>
       </c>
@@ -19530,7 +19532,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="128" t="s">
         <v>368</v>
       </c>
@@ -19586,7 +19588,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="128">
         <v>1826</v>
       </c>
@@ -19642,7 +19644,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="128" t="s">
         <v>382</v>
       </c>
@@ -19698,7 +19700,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="138">
         <v>4643</v>
       </c>
@@ -19752,7 +19754,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="132" t="s">
         <v>392</v>
       </c>
@@ -19810,7 +19812,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="132" t="s">
         <v>400</v>
       </c>
@@ -19868,7 +19870,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="134" t="s">
         <v>407</v>
       </c>
@@ -19924,7 +19926,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="132" t="s">
         <v>414</v>
       </c>
@@ -19980,7 +19982,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="128" t="s">
         <v>421</v>
       </c>
@@ -20034,7 +20036,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="136" t="s">
         <v>426</v>
       </c>
@@ -20090,7 +20092,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="128">
         <v>2080</v>
       </c>
@@ -20144,7 +20146,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="128">
         <v>553</v>
       </c>
@@ -20194,7 +20196,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="132" t="s">
         <v>440</v>
       </c>
@@ -20250,7 +20252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="134" t="s">
         <v>448</v>
       </c>
@@ -20306,7 +20308,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="128">
         <v>3631</v>
       </c>
@@ -20354,7 +20356,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="132" t="s">
         <v>460</v>
       </c>
@@ -20408,7 +20410,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="132" t="s">
         <v>467</v>
       </c>
@@ -20458,7 +20460,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="132" t="s">
         <v>472</v>
       </c>
@@ -20514,7 +20516,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="128">
         <v>3034</v>
       </c>
@@ -20562,7 +20564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="170.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="170.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="132">
         <v>3.3199202014819002E+17</v>
       </c>
@@ -20620,7 +20622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="128">
         <v>750</v>
       </c>
@@ -20676,7 +20678,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="132" t="s">
         <v>1264</v>
       </c>
@@ -20736,7 +20738,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="249" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" ht="260.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="132" t="s">
         <v>1274</v>
       </c>
@@ -20794,7 +20796,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="147.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" ht="147.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="132" t="s">
         <v>1284</v>
       </c>
@@ -20852,7 +20854,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="128" t="s">
         <v>1294</v>
       </c>
@@ -20900,7 +20902,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="128" t="s">
         <v>609</v>
       </c>
@@ -20948,7 +20950,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="132" t="s">
         <v>614</v>
       </c>
@@ -20998,7 +21000,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="132" t="s">
         <v>620</v>
       </c>
@@ -21048,7 +21050,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="128">
         <v>4069</v>
       </c>
@@ -21096,7 +21098,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="132" t="s">
         <v>630</v>
       </c>
@@ -21146,7 +21148,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="132" t="s">
         <v>635</v>
       </c>
@@ -21202,7 +21204,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="128">
         <v>5222</v>
       </c>
@@ -21256,7 +21258,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="128" t="s">
         <v>645</v>
       </c>
@@ -21310,7 +21312,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="130">
         <v>5489</v>
       </c>
@@ -21356,7 +21358,7 @@
       </c>
       <c r="T135" s="4"/>
     </row>
-    <row r="136" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="128" t="s">
         <v>653</v>
       </c>
@@ -21408,7 +21410,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" ht="147.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="128" t="s">
         <v>1300</v>
       </c>
@@ -21462,7 +21464,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="128" t="s">
         <v>1305</v>
       </c>
@@ -21510,7 +21512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="132" t="s">
         <v>1309</v>
       </c>
@@ -21562,7 +21564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="128">
         <v>4834</v>
       </c>
@@ -21614,7 +21616,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="128" t="s">
         <v>1318</v>
       </c>
@@ -21666,7 +21668,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="132" t="s">
         <v>1324</v>
       </c>
@@ -21724,7 +21726,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="128">
         <v>3478</v>
       </c>
@@ -21772,7 +21774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="132" t="s">
         <v>1335</v>
       </c>
@@ -21822,7 +21824,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="132" t="s">
         <v>1340</v>
       </c>
@@ -21880,7 +21882,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="132" t="s">
         <v>725</v>
       </c>
@@ -21930,7 +21932,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="132" t="s">
         <v>730</v>
       </c>
@@ -21980,7 +21982,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="128" t="s">
         <v>736</v>
       </c>
@@ -22032,7 +22034,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="130" t="s">
         <v>741</v>
       </c>
@@ -22084,7 +22086,7 @@
       </c>
       <c r="T149" s="4"/>
     </row>
-    <row r="150" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="128">
         <v>2877</v>
       </c>
@@ -22136,7 +22138,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" ht="150" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="132">
         <v>2.1328952011819002E+17</v>
       </c>
@@ -22194,7 +22196,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="132" t="s">
         <v>761</v>
       </c>
@@ -22248,7 +22250,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="132" t="s">
         <v>767</v>
       </c>
@@ -22304,7 +22306,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="137" t="s">
         <v>776</v>
       </c>
@@ -22362,7 +22364,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="132" t="s">
         <v>784</v>
       </c>
@@ -22420,7 +22422,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="132" t="s">
         <v>792</v>
       </c>
@@ -22476,7 +22478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="132" t="s">
         <v>799</v>
       </c>
@@ -22532,7 +22534,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="128" t="s">
         <v>806</v>
       </c>
@@ -22582,7 +22584,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="137" t="s">
         <v>811</v>
       </c>
@@ -22640,7 +22642,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="170.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" ht="170.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="130" t="s">
         <v>817</v>
       </c>
@@ -22698,7 +22700,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="130" t="s">
         <v>824</v>
       </c>
@@ -22756,7 +22758,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="139" t="s">
         <v>832</v>
       </c>
@@ -22808,7 +22810,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="130" t="s">
         <v>838</v>
       </c>
@@ -22868,7 +22870,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="130" t="s">
         <v>840</v>
       </c>
@@ -22922,7 +22924,7 @@
       </c>
       <c r="T164" s="4"/>
     </row>
-    <row r="165" spans="1:20" ht="147.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="147.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="130" t="s">
         <v>853</v>
       </c>
@@ -22968,7 +22970,7 @@
       </c>
       <c r="T165" s="4"/>
     </row>
-    <row r="166" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="140" t="s">
         <v>858</v>
       </c>
@@ -23016,7 +23018,7 @@
       </c>
       <c r="T166" s="4"/>
     </row>
-    <row r="167" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="130" t="s">
         <v>875</v>
       </c>
@@ -23066,7 +23068,7 @@
       </c>
       <c r="T167" s="4"/>
     </row>
-    <row r="168" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="130" t="s">
         <v>881</v>
       </c>
@@ -23116,7 +23118,7 @@
       </c>
       <c r="T168" s="4"/>
     </row>
-    <row r="169" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="130" t="s">
         <v>888</v>
       </c>
@@ -23160,7 +23162,7 @@
       </c>
       <c r="T169" s="4"/>
     </row>
-    <row r="170" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="141" t="s">
         <v>896</v>
       </c>
@@ -23208,7 +23210,7 @@
       </c>
       <c r="T170" s="4"/>
     </row>
-    <row r="171" spans="1:20" ht="215.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="215.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="130" t="s">
         <v>901</v>
       </c>
@@ -23262,7 +23264,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="147.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="147.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="183" t="s">
         <v>908</v>
       </c>
@@ -23312,7 +23314,7 @@
       </c>
       <c r="T172" s="4"/>
     </row>
-    <row r="173" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="140" t="s">
         <v>957</v>
       </c>
@@ -23358,7 +23360,7 @@
       <c r="S173" s="4"/>
       <c r="T173" s="4"/>
     </row>
-    <row r="174" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="128" t="s">
         <v>962</v>
       </c>
@@ -23408,7 +23410,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="128">
         <v>2921</v>
       </c>
@@ -23460,7 +23462,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="128">
         <v>3093</v>
       </c>
@@ -23510,7 +23512,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="128">
         <v>3081</v>
       </c>
@@ -23562,7 +23564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="128">
         <v>3355</v>
       </c>
@@ -23612,7 +23614,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="132" t="s">
         <v>986</v>
       </c>
@@ -23662,7 +23664,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="57.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="132" t="s">
         <v>991</v>
       </c>
@@ -23716,7 +23718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="128">
         <v>3550</v>
       </c>
@@ -23766,7 +23768,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="132" t="s">
         <v>1052</v>
       </c>
@@ -23818,7 +23820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="132" t="s">
         <v>1057</v>
       </c>
@@ -23870,7 +23872,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="128">
         <v>4918</v>
       </c>
@@ -23922,7 +23924,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="132" t="s">
         <v>1069</v>
       </c>
@@ -23978,7 +23980,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="128" t="s">
         <v>1076</v>
       </c>
@@ -24032,7 +24034,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="132" t="s">
         <v>1080</v>
       </c>
@@ -24088,7 +24090,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="132" t="s">
         <v>1087</v>
       </c>
@@ -24144,7 +24146,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="139">
         <v>5072</v>
       </c>
@@ -24200,7 +24202,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="132" t="s">
         <v>2255</v>
       </c>
@@ -24250,7 +24252,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="181.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" ht="181.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="132" t="s">
         <v>1101</v>
       </c>
@@ -24310,7 +24312,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="132" t="s">
         <v>1111</v>
       </c>
@@ -24358,7 +24360,7 @@
       </c>
       <c r="T192" s="4"/>
     </row>
-    <row r="193" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="130" t="s">
         <v>1116</v>
       </c>
@@ -24414,7 +24416,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="128" t="s">
         <v>1125</v>
       </c>
@@ -24462,7 +24464,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="128" t="s">
         <v>1130</v>
       </c>
@@ -24510,7 +24512,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="132" t="s">
         <v>1135</v>
       </c>
@@ -24562,7 +24564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="128" t="s">
         <v>1142</v>
       </c>
@@ -24610,7 +24612,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="132" t="s">
         <v>1146</v>
       </c>
@@ -24664,7 +24666,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="199" spans="1:20" s="182" customFormat="1" ht="147.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" s="182" customFormat="1" ht="147.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="132" t="s">
         <v>2253</v>
       </c>
@@ -24714,7 +24716,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="128">
         <v>1825</v>
       </c>
@@ -24762,7 +24764,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="132" t="s">
         <v>1162</v>
       </c>
@@ -24812,7 +24814,7 @@
       </c>
       <c r="T201" s="4"/>
     </row>
-    <row r="202" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="128">
         <v>3413</v>
       </c>
@@ -24868,7 +24870,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="139" t="s">
         <v>1172</v>
       </c>
@@ -24924,7 +24926,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="128" t="s">
         <v>1176</v>
       </c>
@@ -24978,7 +24980,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="147.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" ht="147.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="139" t="s">
         <v>1181</v>
       </c>
@@ -25034,7 +25036,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="130" t="s">
         <v>1188</v>
       </c>
@@ -25080,7 +25082,7 @@
       <c r="S206" s="4"/>
       <c r="T206" s="4"/>
     </row>
-    <row r="207" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="130">
         <v>5514</v>
       </c>
@@ -25126,7 +25128,7 @@
       </c>
       <c r="T207" s="4"/>
     </row>
-    <row r="208" spans="1:20" ht="294" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="294" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="135" t="s">
         <v>1197</v>
       </c>
@@ -25174,7 +25176,7 @@
       </c>
       <c r="T208" s="16"/>
     </row>
-    <row r="209" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="128">
         <v>238</v>
       </c>
@@ -25232,7 +25234,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="128">
         <v>2831</v>
       </c>
@@ -25290,7 +25292,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="130" t="s">
         <v>1215</v>
       </c>
@@ -25338,7 +25340,7 @@
       </c>
       <c r="T211" s="4"/>
     </row>
-    <row r="212" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="128" t="s">
         <v>1220</v>
       </c>
@@ -25394,7 +25396,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="132">
         <v>2.0298042006819002E+17</v>
       </c>
@@ -25452,7 +25454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="128">
         <v>4235</v>
       </c>
@@ -25508,7 +25510,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="128">
         <v>3087</v>
       </c>
@@ -25562,7 +25564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="132" t="s">
         <v>1241</v>
       </c>
@@ -25618,7 +25620,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="159" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="132" t="s">
         <v>1247</v>
       </c>
@@ -25674,7 +25676,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="132" t="s">
         <v>1254</v>
       </c>
@@ -25730,7 +25732,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="128" t="s">
         <v>863</v>
       </c>
@@ -25784,7 +25786,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="128" t="s">
         <v>869</v>
       </c>
@@ -25838,7 +25840,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="305.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" ht="305.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="128">
         <v>2700</v>
       </c>
@@ -25886,7 +25888,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="128">
         <v>3364</v>
       </c>
@@ -25934,7 +25936,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="132" t="s">
         <v>1532</v>
       </c>
@@ -25986,7 +25988,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="132" t="s">
         <v>1537</v>
       </c>
@@ -26038,7 +26040,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="144">
         <v>5492</v>
       </c>
@@ -26086,7 +26088,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="128" t="s">
         <v>1546</v>
       </c>
@@ -26136,7 +26138,7 @@
       </c>
       <c r="T226" s="4"/>
     </row>
-    <row r="227" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="132">
         <v>1.39668712006819E+18</v>
       </c>
@@ -26190,7 +26192,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="132" t="s">
         <v>1556</v>
       </c>
@@ -26246,7 +26248,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="128" t="s">
         <v>1561</v>
       </c>
@@ -26296,7 +26298,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="138">
         <v>5248</v>
       </c>
@@ -26350,7 +26352,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="132" t="s">
         <v>1570</v>
       </c>
@@ -26406,7 +26408,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="132" t="s">
         <v>1574</v>
       </c>
@@ -26466,7 +26468,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="128">
         <v>4244</v>
       </c>
@@ -26520,7 +26522,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="144" t="s">
         <v>1586</v>
       </c>
@@ -26576,7 +26578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="132" t="s">
         <v>1590</v>
       </c>
@@ -26632,7 +26634,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="170.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="170.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="132" t="s">
         <v>1596</v>
       </c>
@@ -26686,7 +26688,7 @@
       </c>
       <c r="T236" s="4"/>
     </row>
-    <row r="237" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="132" t="s">
         <v>1603</v>
       </c>
@@ -26744,7 +26746,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="192.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="192.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="132" t="s">
         <v>1612</v>
       </c>
@@ -26804,7 +26806,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="132" t="s">
         <v>1620</v>
       </c>
@@ -26864,7 +26866,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="159" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="132" t="s">
         <v>1628</v>
       </c>
@@ -26916,7 +26918,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" ht="46.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="132" t="s">
         <v>2442</v>
       </c>
@@ -26966,7 +26968,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="159" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="132" t="s">
         <v>2447</v>
       </c>
@@ -27026,7 +27028,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="132" t="s">
         <v>1660</v>
       </c>
@@ -27086,7 +27088,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="132" t="s">
         <v>1668</v>
       </c>
@@ -27146,7 +27148,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="159" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="132" t="s">
         <v>1674</v>
       </c>
@@ -27202,7 +27204,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="246" spans="1:20" s="132" customFormat="1" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" s="132" customFormat="1" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="132" t="s">
         <v>1679</v>
       </c>
@@ -27259,7 +27261,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="141" t="s">
         <v>2474</v>
       </c>
@@ -27307,7 +27309,7 @@
       </c>
       <c r="T247" s="4"/>
     </row>
-    <row r="248" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="132">
         <v>9.6265812008818995E+17</v>
       </c>
@@ -27357,7 +27359,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="132">
         <v>5462</v>
       </c>
@@ -27415,7 +27417,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="145">
         <v>5544</v>
       </c>
@@ -27463,7 +27465,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="159" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="130" t="s">
         <v>1894</v>
       </c>
@@ -27517,7 +27519,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="361.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="361.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="130" t="s">
         <v>1902</v>
       </c>
@@ -27575,7 +27577,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="130" t="s">
         <v>1910</v>
       </c>
@@ -27625,7 +27627,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="132" t="s">
         <v>1915</v>
       </c>
@@ -27669,7 +27671,7 @@
       </c>
       <c r="T254" s="16"/>
     </row>
-    <row r="255" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="132" t="s">
         <v>1921</v>
       </c>
@@ -27717,7 +27719,7 @@
       </c>
       <c r="T255" s="4"/>
     </row>
-    <row r="256" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="132">
         <v>3674</v>
       </c>
@@ -27775,7 +27777,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="128" t="s">
         <v>1935</v>
       </c>
@@ -27823,7 +27825,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="128">
         <v>3782</v>
       </c>
@@ -27871,7 +27873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="259" spans="1:20" s="182" customFormat="1" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" s="182" customFormat="1" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="128" t="s">
         <v>1943</v>
       </c>
@@ -27919,7 +27921,7 @@
       </c>
       <c r="T259" s="4"/>
     </row>
-    <row r="260" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="128" t="s">
         <v>1950</v>
       </c>
@@ -27969,7 +27971,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="128">
         <v>3704</v>
       </c>
@@ -28017,7 +28019,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="128" t="s">
         <v>1960</v>
       </c>
@@ -28067,7 +28069,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="132" t="s">
         <v>1965</v>
       </c>
@@ -28119,7 +28121,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="132" t="s">
         <v>1970</v>
       </c>
@@ -28169,7 +28171,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="140">
         <v>4753</v>
       </c>
@@ -28219,7 +28221,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="130" t="s">
         <v>1980</v>
       </c>
@@ -28271,7 +28273,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="132" t="s">
         <v>1987</v>
       </c>
@@ -28325,7 +28327,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="136" t="s">
         <v>2619</v>
       </c>
@@ -28379,7 +28381,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="269" spans="1:20" s="171" customFormat="1" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" s="171" customFormat="1" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="133" t="s">
         <v>2626</v>
       </c>
@@ -28419,7 +28421,7 @@
       <c r="S269" s="203"/>
       <c r="T269" s="1"/>
     </row>
-    <row r="270" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="147" t="s">
         <v>2630</v>
       </c>
@@ -28477,7 +28479,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="136" t="s">
         <v>1503</v>
       </c>
@@ -28537,7 +28539,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="272" spans="1:20" s="171" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" s="171" customFormat="1" ht="24" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="133" t="s">
         <v>1993</v>
       </c>
@@ -28575,7 +28577,7 @@
       <c r="S272" s="203"/>
       <c r="T272" s="1"/>
     </row>
-    <row r="273" spans="1:20" s="171" customFormat="1" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" s="171" customFormat="1" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="197">
         <v>1.01785792016501E+18</v>
       </c>
@@ -28613,7 +28615,7 @@
       <c r="S273" s="203"/>
       <c r="T273" s="1"/>
     </row>
-    <row r="274" spans="1:20" s="171" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" s="171" customFormat="1" ht="24" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="125" t="s">
         <v>1996</v>
       </c>
@@ -28659,7 +28661,7 @@
       <c r="S274" s="207"/>
       <c r="T274" s="207"/>
     </row>
-    <row r="275" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="128" t="s">
         <v>2000</v>
       </c>
@@ -28717,7 +28719,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="141" t="s">
         <v>2008</v>
       </c>
@@ -28767,7 +28769,7 @@
       </c>
       <c r="T276" s="4"/>
     </row>
-    <row r="277" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="132" t="s">
         <v>2010</v>
       </c>
@@ -28823,7 +28825,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="132" t="s">
         <v>1863</v>
       </c>
@@ -28875,7 +28877,7 @@
       </c>
       <c r="T278" s="4"/>
     </row>
-    <row r="279" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="132" t="s">
         <v>1867</v>
       </c>
@@ -28931,7 +28933,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="132" t="s">
         <v>1873</v>
       </c>
@@ -28985,7 +28987,7 @@
       </c>
       <c r="T280" s="4"/>
     </row>
-    <row r="281" spans="1:20" ht="260.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" ht="260.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="132" t="s">
         <v>1345</v>
       </c>
@@ -29039,7 +29041,7 @@
       </c>
       <c r="T281" s="4"/>
     </row>
-    <row r="282" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="132" t="s">
         <v>1351</v>
       </c>
@@ -29093,7 +29095,7 @@
       </c>
       <c r="T282" s="4"/>
     </row>
-    <row r="283" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="132" t="s">
         <v>1356</v>
       </c>
@@ -29145,7 +29147,7 @@
       </c>
       <c r="T283" s="4"/>
     </row>
-    <row r="284" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="132" t="s">
         <v>1362</v>
       </c>
@@ -29197,7 +29199,7 @@
       </c>
       <c r="T284" s="4"/>
     </row>
-    <row r="285" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="132">
         <v>5000</v>
       </c>
@@ -29249,7 +29251,7 @@
       </c>
       <c r="T285" s="4"/>
     </row>
-    <row r="286" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="132">
         <v>5298</v>
       </c>
@@ -29301,7 +29303,7 @@
       </c>
       <c r="T286" s="4"/>
     </row>
-    <row r="287" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="132" t="s">
         <v>1373</v>
       </c>
@@ -29357,7 +29359,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="132">
         <v>1.3529631995819E+17</v>
       </c>
@@ -29411,7 +29413,7 @@
       </c>
       <c r="T288" s="4"/>
     </row>
-    <row r="289" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="132" t="s">
         <v>1386</v>
       </c>
@@ -29469,7 +29471,7 @@
       </c>
       <c r="T289" s="4"/>
     </row>
-    <row r="290" spans="1:20" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" ht="159" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="132" t="s">
         <v>1393</v>
       </c>
@@ -29523,7 +29525,7 @@
       </c>
       <c r="T290" s="4"/>
     </row>
-    <row r="291" spans="1:20" s="171" customFormat="1" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" s="171" customFormat="1" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="133" t="s">
         <v>1398</v>
       </c>
@@ -29607,7 +29609,7 @@
       <c r="S292" s="181"/>
       <c r="T292" s="172"/>
     </row>
-    <row r="293" spans="1:20" s="171" customFormat="1" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" s="171" customFormat="1" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="133" t="s">
         <v>1406</v>
       </c>
@@ -29645,7 +29647,7 @@
       <c r="S293" s="196"/>
       <c r="T293" s="1"/>
     </row>
-    <row r="294" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="132" t="s">
         <v>1407</v>
       </c>
@@ -29701,7 +29703,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="132" t="s">
         <v>1413</v>
       </c>
@@ -29761,7 +29763,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="148">
         <v>3470</v>
       </c>
@@ -29807,7 +29809,7 @@
       </c>
       <c r="T296" s="73"/>
     </row>
-    <row r="297" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="149">
         <v>2898</v>
       </c>
@@ -29851,7 +29853,7 @@
       <c r="S297" s="73"/>
       <c r="T297" s="73"/>
     </row>
-    <row r="298" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" s="129">
         <v>5526</v>
       </c>
@@ -29899,7 +29901,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="129" t="s">
         <v>1430</v>
       </c>
@@ -29939,7 +29941,7 @@
       <c r="S299" s="1"/>
       <c r="T299" s="1"/>
     </row>
-    <row r="300" spans="1:20" s="171" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" s="171" customFormat="1" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="133" t="s">
         <v>1431</v>
       </c>
@@ -29989,7 +29991,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="301" spans="1:20" s="171" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" s="171" customFormat="1" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="191" t="s">
         <v>1435</v>
       </c>
@@ -30031,7 +30033,7 @@
       <c r="S301" s="84"/>
       <c r="T301" s="84"/>
     </row>
-    <row r="302" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="150">
         <v>1083</v>
       </c>
@@ -30079,7 +30081,7 @@
       </c>
       <c r="T302" s="73"/>
     </row>
-    <row r="303" spans="1:20" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="146" t="s">
         <v>1445</v>
       </c>
@@ -30127,7 +30129,7 @@
       </c>
       <c r="T303" s="73"/>
     </row>
-    <row r="304" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="151" t="s">
         <v>1451</v>
       </c>
@@ -30173,7 +30175,7 @@
       <c r="S304" s="84"/>
       <c r="T304" s="84"/>
     </row>
-    <row r="305" spans="1:20" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A305" s="151" t="s">
         <v>1455</v>
       </c>
@@ -30223,7 +30225,7 @@
       </c>
       <c r="T305" s="84"/>
     </row>
-    <row r="306" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A306" s="151" t="s">
         <v>1462</v>
       </c>
@@ -30269,7 +30271,7 @@
       <c r="S306" s="84"/>
       <c r="T306" s="84"/>
     </row>
-    <row r="307" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A307" s="132" t="s">
         <v>1465</v>
       </c>
@@ -30323,7 +30325,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="215.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" ht="215.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A308" s="148" t="s">
         <v>1472</v>
       </c>
@@ -30377,7 +30379,7 @@
       </c>
       <c r="T308" s="4"/>
     </row>
-    <row r="309" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A309" s="128" t="s">
         <v>1477</v>
       </c>
@@ -30429,7 +30431,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="127" t="s">
         <v>1484</v>
       </c>
@@ -30477,7 +30479,7 @@
       </c>
       <c r="T310" s="84"/>
     </row>
-    <row r="311" spans="1:20" s="171" customFormat="1" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" s="171" customFormat="1" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A311" s="129" t="s">
         <v>1488</v>
       </c>
@@ -30521,7 +30523,7 @@
       </c>
       <c r="T311" s="84"/>
     </row>
-    <row r="312" spans="1:20" ht="170.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" ht="170.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A312" s="148" t="s">
         <v>1492</v>
       </c>
@@ -30569,7 +30571,7 @@
       <c r="S312" s="73"/>
       <c r="T312" s="73"/>
     </row>
-    <row r="313" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A313" s="148" t="s">
         <v>1496</v>
       </c>
@@ -30629,7 +30631,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A314" s="130">
         <v>5645</v>
       </c>
@@ -30675,7 +30677,7 @@
       </c>
       <c r="T314" s="73"/>
     </row>
-    <row r="315" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="130" t="s">
         <v>2012</v>
       </c>
@@ -30731,7 +30733,7 @@
       </c>
       <c r="T315" s="73"/>
     </row>
-    <row r="316" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A316" s="127" t="s">
         <v>2020</v>
       </c>
@@ -30779,7 +30781,7 @@
       <c r="S316" s="84"/>
       <c r="T316" s="84"/>
     </row>
-    <row r="317" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A317" s="127" t="s">
         <v>2276</v>
       </c>
@@ -30823,7 +30825,7 @@
       <c r="S317" s="84"/>
       <c r="T317" s="84"/>
     </row>
-    <row r="318" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A318" s="127" t="s">
         <v>2281</v>
       </c>
@@ -30869,7 +30871,7 @@
       <c r="S318" s="84"/>
       <c r="T318" s="84"/>
     </row>
-    <row r="319" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A319" s="127" t="s">
         <v>2285</v>
       </c>
@@ -30917,7 +30919,7 @@
       </c>
       <c r="T319" s="84"/>
     </row>
-    <row r="320" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A320" s="127">
         <v>5643</v>
       </c>
@@ -30963,7 +30965,7 @@
       </c>
       <c r="T320" s="84"/>
     </row>
-    <row r="321" spans="1:20" ht="80.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" ht="80.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A321" s="148" t="s">
         <v>2292</v>
       </c>
@@ -31013,7 +31015,7 @@
       </c>
       <c r="T321" s="73"/>
     </row>
-    <row r="322" spans="1:20" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" ht="159" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A322" s="130" t="s">
         <v>2298</v>
       </c>
@@ -31061,7 +31063,7 @@
       </c>
       <c r="T322" s="73"/>
     </row>
-    <row r="323" spans="1:20" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A323" s="130" t="s">
         <v>2303</v>
       </c>
@@ -31117,7 +31119,7 @@
       </c>
       <c r="T323" s="73"/>
     </row>
-    <row r="324" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A324" s="127" t="s">
         <v>2313</v>
       </c>
@@ -31165,7 +31167,7 @@
       </c>
       <c r="T324" s="84"/>
     </row>
-    <row r="325" spans="1:20" s="171" customFormat="1" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" s="171" customFormat="1" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A325" s="127" t="s">
         <v>2318</v>
       </c>
@@ -31207,7 +31209,7 @@
       <c r="S325" s="84"/>
       <c r="T325" s="84"/>
     </row>
-    <row r="326" spans="1:20" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A326" s="127" t="s">
         <v>2321</v>
       </c>
@@ -31251,7 +31253,7 @@
       </c>
       <c r="T326" s="84"/>
     </row>
-    <row r="327" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A327" s="71" t="s">
         <v>2324</v>
       </c>
@@ -31311,7 +31313,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="130" t="s">
         <v>2330</v>
       </c>
@@ -31355,7 +31357,7 @@
       <c r="S328" s="73"/>
       <c r="T328" s="73"/>
     </row>
-    <row r="329" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A329" s="152" t="s">
         <v>2332</v>
       </c>
@@ -31415,7 +31417,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A330" s="127" t="s">
         <v>2338</v>
       </c>
@@ -31465,7 +31467,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A331" s="127" t="s">
         <v>2343</v>
       </c>
@@ -31509,7 +31511,7 @@
       <c r="S331" s="84"/>
       <c r="T331" s="84"/>
     </row>
-    <row r="332" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A332" s="130" t="s">
         <v>2347</v>
       </c>
@@ -31559,7 +31561,7 @@
       </c>
       <c r="T332" s="73"/>
     </row>
-    <row r="333" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A333" s="146" t="s">
         <v>2354</v>
       </c>
@@ -31607,7 +31609,7 @@
       </c>
       <c r="T333" s="73"/>
     </row>
-    <row r="334" spans="1:20" ht="79.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A334" s="153" t="s">
         <v>2359</v>
       </c>
@@ -31665,7 +31667,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" s="146" t="s">
         <v>2367</v>
       </c>
@@ -31713,7 +31715,7 @@
       </c>
       <c r="T335" s="73"/>
     </row>
-    <row r="336" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A336" s="146" t="s">
         <v>2372</v>
       </c>
@@ -31761,7 +31763,7 @@
       </c>
       <c r="T336" s="73"/>
     </row>
-    <row r="337" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="130" t="s">
         <v>2376</v>
       </c>
@@ -31809,7 +31811,7 @@
       </c>
       <c r="T337" s="4"/>
     </row>
-    <row r="338" spans="1:20" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A338" s="130" t="s">
         <v>2380</v>
       </c>
@@ -31853,7 +31855,7 @@
       <c r="S338" s="4"/>
       <c r="T338" s="4"/>
     </row>
-    <row r="339" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A339" s="130" t="s">
         <v>2385</v>
       </c>
@@ -31897,7 +31899,7 @@
       </c>
       <c r="T339" s="4"/>
     </row>
-    <row r="340" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A340" s="127" t="s">
         <v>2389</v>
       </c>
@@ -31945,7 +31947,7 @@
       </c>
       <c r="T340" s="1"/>
     </row>
-    <row r="341" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A341" s="140" t="s">
         <v>2393</v>
       </c>
@@ -31993,7 +31995,7 @@
       </c>
       <c r="T341" s="4"/>
     </row>
-    <row r="342" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A342" s="129" t="s">
         <v>2398</v>
       </c>
@@ -32049,7 +32051,7 @@
       </c>
       <c r="T342" s="1"/>
     </row>
-    <row r="343" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A343" s="140" t="s">
         <v>2403</v>
       </c>
@@ -32097,7 +32099,7 @@
       </c>
       <c r="T343" s="4"/>
     </row>
-    <row r="344" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A344" s="127" t="s">
         <v>2408</v>
       </c>
@@ -32143,7 +32145,7 @@
       <c r="S344" s="1"/>
       <c r="T344" s="1"/>
     </row>
-    <row r="345" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A345" s="127">
         <v>5692</v>
       </c>
@@ -32187,7 +32189,7 @@
       <c r="S345" s="1"/>
       <c r="T345" s="1"/>
     </row>
-    <row r="346" spans="1:20" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" ht="159" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A346" s="127" t="s">
         <v>2413</v>
       </c>
@@ -32233,7 +32235,7 @@
       <c r="S346" s="1"/>
       <c r="T346" s="1"/>
     </row>
-    <row r="347" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A347" s="140">
         <v>5683</v>
       </c>
@@ -32279,7 +32281,7 @@
       </c>
       <c r="T347" s="4"/>
     </row>
-    <row r="348" spans="1:20" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" ht="159" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="140">
         <v>5552</v>
       </c>
@@ -32337,7 +32339,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="349" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="140" t="s">
         <v>2428</v>
       </c>
@@ -32397,7 +32399,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="350" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="140" t="s">
         <v>2435</v>
       </c>
@@ -32443,7 +32445,7 @@
       <c r="S350" s="4"/>
       <c r="T350" s="4"/>
     </row>
-    <row r="351" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="140" t="s">
         <v>1632</v>
       </c>
@@ -32491,7 +32493,7 @@
       </c>
       <c r="T351" s="4"/>
     </row>
-    <row r="352" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" s="129" t="s">
         <v>1638</v>
       </c>
@@ -32537,7 +32539,7 @@
       <c r="S352" s="1"/>
       <c r="T352" s="1"/>
     </row>
-    <row r="353" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A353" s="140" t="s">
         <v>1641</v>
       </c>
@@ -32581,7 +32583,7 @@
       <c r="S353" s="4"/>
       <c r="T353" s="4"/>
     </row>
-    <row r="354" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="130">
         <v>5698</v>
       </c>
@@ -32625,7 +32627,7 @@
       <c r="S354" s="4"/>
       <c r="T354" s="4"/>
     </row>
-    <row r="355" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A355" s="127">
         <v>34483</v>
       </c>
@@ -32669,7 +32671,7 @@
       <c r="S355" s="1"/>
       <c r="T355" s="1"/>
     </row>
-    <row r="356" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A356" s="130" t="s">
         <v>1681</v>
       </c>
@@ -32729,7 +32731,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="129">
         <v>2865</v>
       </c>
@@ -32773,7 +32775,7 @@
       <c r="S357" s="84"/>
       <c r="T357" s="84"/>
     </row>
-    <row r="358" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A358" s="127" t="s">
         <v>1688</v>
       </c>
@@ -32819,7 +32821,7 @@
       <c r="S358" s="84"/>
       <c r="T358" s="84"/>
     </row>
-    <row r="359" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A359" s="130">
         <v>40</v>
       </c>
@@ -32865,7 +32867,7 @@
       <c r="S359" s="73"/>
       <c r="T359" s="73"/>
     </row>
-    <row r="360" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A360" s="130" t="s">
         <v>1695</v>
       </c>
@@ -32911,7 +32913,7 @@
       <c r="S360" s="73"/>
       <c r="T360" s="73"/>
     </row>
-    <row r="361" spans="1:20" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A361" s="154">
         <v>5156</v>
       </c>
@@ -32957,7 +32959,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="362" spans="1:20" s="171" customFormat="1" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" s="171" customFormat="1" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A362" s="169" t="s">
         <v>221</v>
       </c>
@@ -33003,7 +33005,7 @@
       <c r="S362" s="84"/>
       <c r="T362" s="84"/>
     </row>
-    <row r="363" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A363" s="127">
         <v>5704</v>
       </c>
@@ -33045,7 +33047,7 @@
       <c r="S363" s="84"/>
       <c r="T363" s="84"/>
     </row>
-    <row r="364" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A364" s="127" t="s">
         <v>1709</v>
       </c>
@@ -33093,7 +33095,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A365" s="155" t="s">
         <v>1714</v>
       </c>
@@ -33143,7 +33145,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A366" s="154" t="s">
         <v>1719</v>
       </c>
@@ -33203,7 +33205,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="159" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" ht="159" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A367" s="154" t="s">
         <v>1729</v>
       </c>
@@ -33263,7 +33265,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A368" s="92">
         <v>2981</v>
       </c>
@@ -33321,7 +33323,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="244.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" ht="244.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A369" s="132" t="s">
         <v>1743</v>
       </c>
@@ -33381,7 +33383,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" s="132" t="s">
         <v>1752</v>
       </c>
@@ -33441,7 +33443,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="371" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A371" s="132" t="s">
         <v>1757</v>
       </c>
@@ -33501,7 +33503,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" s="132" t="s">
         <v>1762</v>
       </c>
@@ -33561,7 +33563,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="132" t="s">
         <v>1766</v>
       </c>
@@ -33621,7 +33623,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="128" t="s">
         <v>1771</v>
       </c>
@@ -33681,7 +33683,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="375" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A375" s="128" t="s">
         <v>1777</v>
       </c>
@@ -33737,7 +33739,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="376" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A376" s="128">
         <v>4092</v>
       </c>
@@ -33793,7 +33795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="377" spans="1:20" ht="147.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" ht="147.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A377" s="128">
         <v>3406</v>
       </c>
@@ -33845,7 +33847,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="378" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A378" s="156">
         <v>5551</v>
       </c>
@@ -33887,7 +33889,7 @@
       </c>
       <c r="T378" s="102"/>
     </row>
-    <row r="379" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" s="128" t="s">
         <v>1793</v>
       </c>
@@ -33937,7 +33939,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="380" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A380" s="128" t="s">
         <v>1799</v>
       </c>
@@ -33987,7 +33989,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="381" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A381" s="128" t="s">
         <v>1804</v>
       </c>
@@ -34043,7 +34045,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="382" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A382" s="128" t="s">
         <v>1809</v>
       </c>
@@ -34097,7 +34099,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="383" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A383" s="128">
         <v>2681</v>
       </c>
@@ -34151,7 +34153,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="384" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" s="128" t="s">
         <v>1820</v>
       </c>
@@ -34205,7 +34207,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="385" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="128" t="s">
         <v>1824</v>
       </c>
@@ -34257,7 +34259,7 @@
       </c>
       <c r="T385" s="99"/>
     </row>
-    <row r="386" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A386" s="128" t="s">
         <v>2646</v>
       </c>
@@ -34313,7 +34315,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="387" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A387" s="128" t="s">
         <v>2651</v>
       </c>
@@ -34369,7 +34371,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="388" spans="1:20" s="168" customFormat="1" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:20" s="168" customFormat="1" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="157" t="s">
         <v>2656</v>
       </c>
@@ -34417,7 +34419,7 @@
       </c>
       <c r="T388" s="106"/>
     </row>
-    <row r="389" spans="1:20" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="157" t="s">
         <v>2398</v>
       </c>
@@ -34465,7 +34467,7 @@
       </c>
       <c r="T389" s="106"/>
     </row>
-    <row r="390" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A390" s="132" t="s">
         <v>2634</v>
       </c>
@@ -34515,7 +34517,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="391" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A391" s="132" t="s">
         <v>1830</v>
       </c>
@@ -34571,7 +34573,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="392" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A392" s="132" t="s">
         <v>1836</v>
       </c>
@@ -34621,7 +34623,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="393" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A393" s="132" t="s">
         <v>2494</v>
       </c>
@@ -34677,7 +34679,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="394" spans="1:20" s="166" customFormat="1" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" s="166" customFormat="1" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A394" s="162">
         <v>2994</v>
       </c>
@@ -34725,7 +34727,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="395" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A395" s="128" t="s">
         <v>2503</v>
       </c>
@@ -34783,7 +34785,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="396" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A396" s="128">
         <v>2956</v>
       </c>
@@ -34835,7 +34837,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="397" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A397" s="128" t="s">
         <v>2515</v>
       </c>
@@ -34893,7 +34895,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="398" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A398" s="128">
         <v>3697</v>
       </c>
@@ -34939,7 +34941,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="399" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A399" s="128" t="s">
         <v>2525</v>
       </c>
@@ -34993,7 +34995,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="400" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A400" s="128" t="s">
         <v>2531</v>
       </c>
@@ -35045,7 +35047,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="401" spans="1:20" ht="102.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" ht="102.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A401" s="128" t="s">
         <v>2534</v>
       </c>
@@ -35099,7 +35101,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="402" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A402" s="128">
         <v>5743</v>
       </c>
@@ -35149,7 +35151,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="403" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A403" s="137">
         <v>5745</v>
       </c>
@@ -35201,7 +35203,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="404" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A404" s="128" t="s">
         <v>2548</v>
       </c>
@@ -35257,7 +35259,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="405" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A405" s="158">
         <v>5747</v>
       </c>
@@ -35307,7 +35309,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="406" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A406" s="158">
         <v>852475</v>
       </c>
@@ -35353,7 +35355,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="407" spans="1:20" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A407" s="158">
         <v>5749</v>
       </c>
@@ -35405,7 +35407,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="408" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A408" s="158" t="s">
         <v>2559</v>
       </c>
@@ -35461,7 +35463,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="409" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A409" s="158" t="s">
         <v>2564</v>
       </c>
@@ -35520,7 +35522,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="410" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A410" s="158" t="s">
         <v>2570</v>
       </c>
@@ -35578,7 +35580,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="411" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A411" s="132" t="s">
         <v>2577</v>
       </c>
@@ -35634,7 +35636,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="412" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A412" s="158" t="s">
         <v>1745</v>
       </c>
@@ -35694,7 +35696,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="413" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A413" s="158" t="s">
         <v>2590</v>
       </c>
@@ -35754,7 +35756,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="414" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A414" s="158">
         <v>5767</v>
       </c>
@@ -35812,7 +35814,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="415" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A415" s="158" t="s">
         <v>2600</v>
       </c>
@@ -35872,7 +35874,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="416" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A416" s="158" t="s">
         <v>2605</v>
       </c>
@@ -35932,7 +35934,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="417" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A417" s="159">
         <v>5782</v>
       </c>
@@ -35990,7 +35992,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="418" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A418" s="158" t="s">
         <v>2615</v>
       </c>
@@ -36048,7 +36050,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="419" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A419" s="158" t="s">
         <v>2663</v>
       </c>
@@ -36092,7 +36094,7 @@
       <c r="S419" s="109"/>
       <c r="T419" s="98"/>
     </row>
-    <row r="420" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A420" s="158" t="s">
         <v>2666</v>
       </c>
@@ -36148,7 +36150,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="421" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A421" s="158" t="s">
         <v>2670</v>
       </c>
@@ -36206,7 +36208,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="422" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A422" s="158">
         <v>5790</v>
       </c>
@@ -36262,7 +36264,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="423" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A423" s="158" t="s">
         <v>2679</v>
       </c>
@@ -36320,7 +36322,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="424" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A424" s="158">
         <v>5793</v>
       </c>
@@ -36374,7 +36376,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="425" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A425" s="158">
         <v>5796</v>
       </c>
@@ -36430,7 +36432,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="426" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A426" s="158">
         <v>5794</v>
       </c>
@@ -36486,7 +36488,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="427" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A427" s="160" t="s">
         <v>1884</v>
       </c>
@@ -36544,7 +36546,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="428" spans="1:20" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" ht="35.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A428" s="160" t="s">
         <v>1888</v>
       </c>
@@ -36604,7 +36606,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="429" spans="1:20" ht="260.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" ht="260.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A429" s="160" t="s">
         <v>2027</v>
       </c>
@@ -36664,7 +36666,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="430" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A430" s="160" t="s">
         <v>2035</v>
       </c>
@@ -36724,7 +36726,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="431" spans="1:20" ht="199.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" ht="199.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A431" s="160" t="s">
         <v>2040</v>
       </c>
@@ -36784,7 +36786,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="432" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A432" s="160" t="s">
         <v>2046</v>
       </c>
@@ -36844,7 +36846,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="433" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A433" s="160" t="s">
         <v>2052</v>
       </c>
@@ -36948,7 +36950,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="435" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A435" s="160" t="s">
         <v>2057</v>
       </c>
@@ -37008,7 +37010,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="436" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A436" s="160" t="s">
         <v>2063</v>
       </c>
@@ -37068,7 +37070,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="437" spans="1:20" ht="136.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" ht="136.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A437" s="160" t="s">
         <v>2069</v>
       </c>
@@ -37128,7 +37130,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="438" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A438" s="160" t="s">
         <v>2075</v>
       </c>
@@ -37186,7 +37188,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="439" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A439" s="160" t="s">
         <v>2079</v>
       </c>
@@ -37246,7 +37248,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="440" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A440" s="160" t="s">
         <v>2085</v>
       </c>
@@ -37306,7 +37308,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="441" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A441" s="160">
         <v>497</v>
       </c>
@@ -37364,7 +37366,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="442" spans="1:20" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" ht="80.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A442" s="160">
         <v>5824</v>
       </c>
@@ -37422,7 +37424,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="443" spans="1:20" ht="125.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" ht="125.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A443" s="160">
         <v>5833</v>
       </c>
@@ -37480,7 +37482,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="444" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A444" s="160" t="s">
         <v>2104</v>
       </c>
@@ -37538,7 +37540,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="445" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A445" s="160" t="s">
         <v>2110</v>
       </c>
@@ -37596,7 +37598,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="446" spans="1:20" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" ht="91.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A446" s="160" t="s">
         <v>2114</v>
       </c>
@@ -37654,7 +37656,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="447" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A447" s="160" t="s">
         <v>2119</v>
       </c>
@@ -37712,7 +37714,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="448" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A448" s="160" t="s">
         <v>2124</v>
       </c>
@@ -37770,7 +37772,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="449" spans="1:20" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" ht="57.75" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A449" s="160" t="s">
         <v>2127</v>
       </c>
@@ -37828,7 +37830,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="450" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A450" s="160" t="s">
         <v>2130</v>
       </c>
@@ -37886,7 +37888,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="451" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A451" s="160" t="s">
         <v>2133</v>
       </c>
@@ -37944,7 +37946,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="452" spans="1:20" ht="114" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:20" ht="114" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A452" s="160" t="s">
         <v>2137</v>
       </c>
@@ -38054,7 +38056,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="454" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A454" s="160" t="s">
         <v>2267</v>
       </c>
@@ -38110,7 +38112,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="455" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A455" s="160" t="s">
         <v>2271</v>
       </c>
@@ -38166,7 +38168,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="456" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" ht="46.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A456" s="160" t="s">
         <v>1513</v>
       </c>
@@ -38222,7 +38224,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="457" spans="1:20" ht="69" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:20" ht="69" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A457" s="160" t="s">
         <v>1516</v>
       </c>
@@ -38280,7 +38282,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="458" spans="1:20" ht="128.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" ht="128.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A458" s="158" t="s">
         <v>1519</v>
       </c>
@@ -38340,7 +38342,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="459" spans="1:20" ht="128.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" ht="128.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A459" s="158" t="s">
         <v>282</v>
       </c>
@@ -38398,7 +38400,11 @@
     </row>
     <row r="460" spans="1:20" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:T459"/>
+  <autoFilter ref="A1:T459">
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A48" r:id="rId1" display="http://www4.tjrj.jus.br/ejud/ConsultaProcesso.aspx?N=201500400473"/>
